--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104740.110430748</v>
+        <v>2050092.346289013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2997551.501605988</v>
+        <v>3003638.261695863</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10933919.17430199</v>
+        <v>10893593.65179476</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5951074.345981142</v>
+        <v>5955921.858499619</v>
       </c>
     </row>
     <row r="11">
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>10.28755987289278</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>108.9315903408314</v>
+        <v>97.90435205358152</v>
       </c>
       <c r="H17" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>95.94694477220426</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>102.7743721897419</v>
       </c>
       <c r="F18" t="n">
-        <v>91.66507655480343</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>57.36473597083737</v>
       </c>
       <c r="I18" t="n">
-        <v>4.281868217400826</v>
+        <v>3.632014524616843</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.28712588698404</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>95.21133717963191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.95504427809233</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>31.2913349860353</v>
       </c>
       <c r="R19" t="n">
-        <v>69.71215365531147</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="T19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.61301706754629</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>94.99840967549059</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="U20" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="V20" t="n">
-        <v>108.9315903408314</v>
+        <v>2.905942378090953</v>
       </c>
       <c r="W20" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>95.94694477220429</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>94.04092972605831</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.906015046145993</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>57.36473597083737</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>34.52592458575599</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>6.013691496988147</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="W21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>93.02982680798873</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.917117964215587</v>
+        <v>31.2913349860353</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="T22" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>66.61301706754629</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>39.2308442919117</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
         <v>133.6992167127163</v>
@@ -2377,7 +2377,7 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>218.5698048050575</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>65.38310496113588</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>67.99460280808036</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
         <v>116.3763523520624</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4475975596611348</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>108.2592565607634</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>30.73364383471658</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>11.69156952359509</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>35.3052887763567</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
         <v>110.7680958434065</v>
@@ -2696,7 +2696,7 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
         <v>72.8305396560245</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>6.750798545781715</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>69.44379205934905</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>151.8129005537074</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>32.18946381887719</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,22 +2873,22 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>2.364928989847212</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>110.7680958434065</v>
@@ -2930,16 +2930,16 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>125.4354019345905</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>62.90653381182689</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>121.8200149344674</v>
       </c>
     </row>
     <row r="32">
@@ -3031,11 +3031,11 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>53.0559510036146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>227.5944243174918</v>
       </c>
       <c r="W32" t="n">
-        <v>225.7052502036094</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>72.55066483567261</v>
       </c>
       <c r="D33" t="n">
-        <v>3.766543841263326</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y33" t="n">
-        <v>105.5248616246612</v>
+        <v>24.0048373252294</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>55.29264077461515</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
         <v>123.8587638843291</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
-        <v>49.4829951160939</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>125.551821236394</v>
+        <v>63.58080405330444</v>
       </c>
       <c r="Y34" t="n">
         <v>118.4268191994517</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>201.0078383807136</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>44.91137824074075</v>
       </c>
       <c r="G36" t="n">
-        <v>8.385321841318387</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>12.07761008385333</v>
@@ -3398,7 +3398,7 @@
         <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
         <v>125.7835479283317</v>
@@ -3413,7 +3413,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y36" t="n">
-        <v>105.5248616246612</v>
+        <v>13.90328892380124</v>
       </c>
     </row>
     <row r="37">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>52.29162146217595</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>145.3014327627104</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>104.01525235787</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>215.3939976830282</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>85.70378080134118</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.3678465100588</v>
+        <v>100.9012740829802</v>
       </c>
       <c r="C39" t="n">
-        <v>108.5431618485072</v>
+        <v>107.0765894214286</v>
       </c>
       <c r="D39" t="n">
-        <v>83.27972842483025</v>
+        <v>81.81315599775161</v>
       </c>
       <c r="E39" t="n">
-        <v>93.47974331559244</v>
+        <v>92.0131708885138</v>
       </c>
       <c r="F39" t="n">
-        <v>80.90387525357538</v>
+        <v>79.43730282649673</v>
       </c>
       <c r="G39" t="n">
-        <v>73.17818002340213</v>
+        <v>71.71160759632349</v>
       </c>
       <c r="H39" t="n">
-        <v>48.07010709668796</v>
+        <v>46.60353466960932</v>
       </c>
       <c r="I39" t="n">
-        <v>25.23129571160658</v>
+        <v>23.76472328452793</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.0512615369507</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>134.5328191279345</v>
       </c>
       <c r="U39" t="n">
-        <v>161.7760449411663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>59.0710430828686</v>
+        <v>91.42281284390253</v>
       </c>
     </row>
     <row r="40">
@@ -3666,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1332414262213439</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.26862550676067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>81.25571088312275</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.8256422186503</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>98.06183536763108</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>91.28513778744978</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19384297686427</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>87.25153945473416</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>186.5057337569409</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>220.8910887697039</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>114.3810335898605</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>116.3384408712378</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>118.533861063052</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>102.0038701030586</v>
       </c>
       <c r="F42" t="n">
-        <v>90.89457446812018</v>
+        <v>89.42800204104154</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>81.70230681086829</v>
       </c>
       <c r="H42" t="n">
-        <v>3.770708950741831</v>
+        <v>56.59423388415412</v>
       </c>
       <c r="I42" t="n">
-        <v>35.22199492615138</v>
+        <v>33.75542249907274</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>10.6179829697862</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
     </row>
     <row r="43">
@@ -3897,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.085261079245456</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>113.0721831733641</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>90.79275229422683</v>
       </c>
       <c r="F43" t="n">
-        <v>91.24641009766755</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.8163414331951</v>
+        <v>48.62735804249303</v>
       </c>
       <c r="H43" t="n">
-        <v>108.0525345821759</v>
+        <v>106.5859621550972</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>37.71796976433043</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>30.52083289935204</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.6521810248271</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>116.3384408712378</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>114.3810335898605</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="W44" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>118.533861063052</v>
+        <v>117.0672886359734</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>91.80385521229641</v>
       </c>
       <c r="E45" t="n">
-        <v>103.4704425301372</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>26.41683581487615</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>81.70230681086829</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.51662380030079</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>116.0419607514955</v>
       </c>
       <c r="T45" t="n">
-        <v>132.0826985368276</v>
+        <v>52.83017545610755</v>
       </c>
       <c r="U45" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>124.190769829595</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>75.25993183657397</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>106.5859621550972</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>31.0246347551651</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="X46" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.45244411510385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="C17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="D17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="E17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="F17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="G17" t="n">
-        <v>228.778346097633</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="H17" t="n">
-        <v>118.7464366624498</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="I17" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="J17" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="K17" t="n">
-        <v>111.7295331381889</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="L17" t="n">
-        <v>219.571807575612</v>
+        <v>118.9346692749004</v>
       </c>
       <c r="M17" t="n">
-        <v>238.2240316338516</v>
+        <v>228.977026828313</v>
       </c>
       <c r="N17" t="n">
-        <v>238.2240316338516</v>
+        <v>339.0193843817256</v>
       </c>
       <c r="O17" t="n">
-        <v>346.0663060712747</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="P17" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="Q17" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="R17" t="n">
-        <v>338.8102555328163</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="S17" t="n">
-        <v>338.8102555328163</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="T17" t="n">
-        <v>338.8102555328163</v>
+        <v>332.3389229242946</v>
       </c>
       <c r="U17" t="n">
-        <v>338.8102555328163</v>
+        <v>332.3389229242946</v>
       </c>
       <c r="V17" t="n">
-        <v>338.8102555328163</v>
+        <v>220.062259774195</v>
       </c>
       <c r="W17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="X17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.8102555328163</v>
+        <v>107.7855966240955</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>105.6306330577759</v>
+        <v>286.5943513212804</v>
       </c>
       <c r="C18" t="n">
-        <v>105.6306330577759</v>
+        <v>174.3176881711809</v>
       </c>
       <c r="D18" t="n">
-        <v>105.6306330577759</v>
+        <v>174.3176881711809</v>
       </c>
       <c r="E18" t="n">
-        <v>105.6306330577759</v>
+        <v>70.50519100982548</v>
       </c>
       <c r="F18" t="n">
-        <v>13.0396466387825</v>
+        <v>70.50519100982548</v>
       </c>
       <c r="G18" t="n">
-        <v>13.0396466387825</v>
+        <v>70.50519100982548</v>
       </c>
       <c r="H18" t="n">
-        <v>13.0396466387825</v>
+        <v>12.5610132615049</v>
       </c>
       <c r="I18" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="J18" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="K18" t="n">
-        <v>116.5568016646896</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="L18" t="n">
-        <v>116.5568016646896</v>
+        <v>45.09395490082721</v>
       </c>
       <c r="M18" t="n">
-        <v>220.0418124884794</v>
+        <v>155.1363124542398</v>
       </c>
       <c r="N18" t="n">
-        <v>220.0418124884794</v>
+        <v>265.1786700076523</v>
       </c>
       <c r="O18" t="n">
-        <v>327.8840869259025</v>
+        <v>375.2210275610649</v>
       </c>
       <c r="P18" t="n">
-        <v>435.7263613633256</v>
+        <v>375.2210275610649</v>
       </c>
       <c r="Q18" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="R18" t="n">
-        <v>435.7263613633256</v>
+        <v>398.87101447138</v>
       </c>
       <c r="S18" t="n">
-        <v>435.7263613633256</v>
+        <v>398.87101447138</v>
       </c>
       <c r="T18" t="n">
-        <v>325.6944519281424</v>
+        <v>398.87101447138</v>
       </c>
       <c r="U18" t="n">
-        <v>215.6625424929591</v>
+        <v>398.87101447138</v>
       </c>
       <c r="V18" t="n">
-        <v>105.6306330577759</v>
+        <v>398.87101447138</v>
       </c>
       <c r="W18" t="n">
-        <v>105.6306330577759</v>
+        <v>398.87101447138</v>
       </c>
       <c r="X18" t="n">
-        <v>105.6306330577759</v>
+        <v>398.87101447138</v>
       </c>
       <c r="Y18" t="n">
-        <v>105.6306330577759</v>
+        <v>398.87101447138</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.2462256694122</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="C19" t="n">
-        <v>145.2462256694122</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="D19" t="n">
-        <v>49.07315781119816</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="E19" t="n">
-        <v>49.07315781119816</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="F19" t="n">
-        <v>49.07315781119816</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="G19" t="n">
-        <v>49.07315781119816</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="H19" t="n">
-        <v>49.07315781119816</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="I19" t="n">
-        <v>49.07315781119816</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="J19" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="K19" t="n">
-        <v>39.53782479983715</v>
+        <v>41.16751599686637</v>
       </c>
       <c r="L19" t="n">
-        <v>119.7220442877448</v>
+        <v>122.8036421875819</v>
       </c>
       <c r="M19" t="n">
-        <v>211.7801769601616</v>
+        <v>216.3136815628066</v>
       </c>
       <c r="N19" t="n">
-        <v>308.3411220957925</v>
+        <v>314.3265334012453</v>
       </c>
       <c r="O19" t="n">
-        <v>385.5504932108864</v>
+        <v>392.9878112191471</v>
       </c>
       <c r="P19" t="n">
-        <v>435.7263613633256</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="Q19" t="n">
-        <v>435.7263613633256</v>
+        <v>413.0081769975909</v>
       </c>
       <c r="R19" t="n">
-        <v>365.3100445397787</v>
+        <v>413.0081769975909</v>
       </c>
       <c r="S19" t="n">
-        <v>365.3100445397787</v>
+        <v>300.7315138474913</v>
       </c>
       <c r="T19" t="n">
-        <v>255.2781351045955</v>
+        <v>300.7315138474913</v>
       </c>
       <c r="U19" t="n">
-        <v>255.2781351045955</v>
+        <v>188.4548506973918</v>
       </c>
       <c r="V19" t="n">
-        <v>255.2781351045955</v>
+        <v>188.4548506973918</v>
       </c>
       <c r="W19" t="n">
-        <v>255.2781351045955</v>
+        <v>76.17818754729223</v>
       </c>
       <c r="X19" t="n">
-        <v>255.2781351045955</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="Y19" t="n">
-        <v>255.2781351045955</v>
+        <v>8.892311721487884</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="C20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="D20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="E20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="F20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="G20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="H20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="I20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="J20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="K20" t="n">
-        <v>111.7295331381889</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="L20" t="n">
-        <v>219.571807575612</v>
+        <v>118.9346692749004</v>
       </c>
       <c r="M20" t="n">
-        <v>219.571807575612</v>
+        <v>228.977026828313</v>
       </c>
       <c r="N20" t="n">
-        <v>327.4140820130351</v>
+        <v>334.5732285209816</v>
       </c>
       <c r="O20" t="n">
-        <v>435.2563564504582</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="P20" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="Q20" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="R20" t="n">
-        <v>435.7263613633257</v>
+        <v>348.6575965031915</v>
       </c>
       <c r="S20" t="n">
-        <v>435.7263613633257</v>
+        <v>236.380933353092</v>
       </c>
       <c r="T20" t="n">
-        <v>435.7263613633257</v>
+        <v>124.1042702029924</v>
       </c>
       <c r="U20" t="n">
-        <v>325.6944519281424</v>
+        <v>11.82760705289289</v>
       </c>
       <c r="V20" t="n">
-        <v>215.6625424929592</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="W20" t="n">
-        <v>105.6306330577759</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="X20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.6306330577759</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="C21" t="n">
-        <v>105.6306330577759</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="D21" t="n">
-        <v>10.6397949506463</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6397949506463</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="F21" t="n">
-        <v>10.6397949506463</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="G21" t="n">
-        <v>8.714527227266514</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="H21" t="n">
-        <v>8.714527227266514</v>
+        <v>43.76698302023131</v>
       </c>
       <c r="I21" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="J21" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="K21" t="n">
-        <v>42.80497953772709</v>
+        <v>118.9346692749004</v>
       </c>
       <c r="L21" t="n">
-        <v>42.80497953772709</v>
+        <v>228.977026828313</v>
       </c>
       <c r="M21" t="n">
-        <v>150.6472539751502</v>
+        <v>339.0193843817256</v>
       </c>
       <c r="N21" t="n">
-        <v>150.6472539751502</v>
+        <v>375.2210275610649</v>
       </c>
       <c r="O21" t="n">
-        <v>258.4895284125733</v>
+        <v>375.2210275610649</v>
       </c>
       <c r="P21" t="n">
-        <v>366.3318028499964</v>
+        <v>375.2210275610649</v>
       </c>
       <c r="Q21" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="R21" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="S21" t="n">
-        <v>435.7263613633257</v>
+        <v>438.5411502188506</v>
       </c>
       <c r="T21" t="n">
-        <v>435.7263613633257</v>
+        <v>326.264487068751</v>
       </c>
       <c r="U21" t="n">
-        <v>435.7263613633257</v>
+        <v>213.9878239186514</v>
       </c>
       <c r="V21" t="n">
-        <v>435.7263613633257</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="W21" t="n">
-        <v>325.6944519281424</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="X21" t="n">
-        <v>325.6944519281424</v>
+        <v>101.7111607685519</v>
       </c>
       <c r="Y21" t="n">
-        <v>215.6625424929592</v>
+        <v>101.7111607685519</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.7159586907212</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="C22" t="n">
-        <v>212.7159586907212</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="D22" t="n">
-        <v>212.7159586907212</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="E22" t="n">
-        <v>118.7464366624498</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="F22" t="n">
-        <v>118.7464366624498</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="G22" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="H22" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="I22" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="J22" t="n">
-        <v>8.714527227266514</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="K22" t="n">
-        <v>39.53782479983715</v>
+        <v>41.16751599686637</v>
       </c>
       <c r="L22" t="n">
-        <v>119.7220442877448</v>
+        <v>122.8036421875819</v>
       </c>
       <c r="M22" t="n">
-        <v>211.7801769601616</v>
+        <v>216.3136815628066</v>
       </c>
       <c r="N22" t="n">
-        <v>308.3411220957926</v>
+        <v>314.3265334012453</v>
       </c>
       <c r="O22" t="n">
-        <v>385.5504932108865</v>
+        <v>392.9878112191471</v>
       </c>
       <c r="P22" t="n">
-        <v>435.7263613633257</v>
+        <v>444.6155860743942</v>
       </c>
       <c r="Q22" t="n">
-        <v>432.7797775610877</v>
+        <v>413.0081769975909</v>
       </c>
       <c r="R22" t="n">
-        <v>432.7797775610877</v>
+        <v>413.0081769975909</v>
       </c>
       <c r="S22" t="n">
-        <v>432.7797775610877</v>
+        <v>300.7315138474913</v>
       </c>
       <c r="T22" t="n">
-        <v>322.7478681259045</v>
+        <v>188.4548506973918</v>
       </c>
       <c r="U22" t="n">
-        <v>322.7478681259045</v>
+        <v>76.17818754729223</v>
       </c>
       <c r="V22" t="n">
-        <v>322.7478681259045</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="W22" t="n">
-        <v>322.7478681259045</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="X22" t="n">
-        <v>322.7478681259045</v>
+        <v>8.892311721487884</v>
       </c>
       <c r="Y22" t="n">
-        <v>322.7478681259045</v>
+        <v>8.892311721487884</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="T23" t="n">
-        <v>829.0074416594076</v>
+        <v>647.092369109342</v>
       </c>
       <c r="U23" t="n">
-        <v>665.4225729155476</v>
+        <v>483.507500365482</v>
       </c>
       <c r="V23" t="n">
-        <v>424.6593147148204</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>181.2105380707204</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>251.2634657112919</v>
+        <v>154.2625093376084</v>
       </c>
       <c r="C24" t="n">
-        <v>251.2634657112919</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="D24" t="n">
-        <v>192.6286851928842</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="E24" t="n">
-        <v>123.9472682150252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>67.7123393847537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6104,16 +6104,16 @@
         <v>631.1284854849908</v>
       </c>
       <c r="V24" t="n">
-        <v>486.2760063960916</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="W24" t="n">
-        <v>486.2760063960916</v>
+        <v>467.1907578996327</v>
       </c>
       <c r="X24" t="n">
-        <v>368.7241353334023</v>
+        <v>349.6388868369434</v>
       </c>
       <c r="Y24" t="n">
-        <v>251.2634657112919</v>
+        <v>232.178217214833</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>239.4087449269527</v>
+        <v>79.09815337970493</v>
       </c>
       <c r="C25" t="n">
-        <v>239.4087449269527</v>
+        <v>79.09815337970493</v>
       </c>
       <c r="D25" t="n">
-        <v>239.4087449269527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>239.4087449269527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>238.9566261798202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>159.5683973848266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S25" t="n">
-        <v>438.5262858210698</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="T25" t="n">
-        <v>438.5262858210698</v>
+        <v>387.3624494058051</v>
       </c>
       <c r="U25" t="n">
-        <v>438.5262858210698</v>
+        <v>188.4509377845164</v>
       </c>
       <c r="V25" t="n">
-        <v>438.5262858210698</v>
+        <v>79.09815337970493</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4087449269527</v>
+        <v>79.09815337970493</v>
       </c>
       <c r="X25" t="n">
-        <v>239.4087449269527</v>
+        <v>79.09815337970493</v>
       </c>
       <c r="Y25" t="n">
-        <v>239.4087449269527</v>
+        <v>79.09815337970493</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>628.4809759125451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>385.032199268445</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>385.032199268445</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E26" t="n">
-        <v>385.032199268445</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F26" t="n">
-        <v>385.032199268445</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>141.5834226243449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>871.9297525566451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>871.9297525566451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>871.9297525566451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>871.9297525566451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>871.9297525566451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>628.4809759125451</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>256.465473240555</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="C27" t="n">
-        <v>172.3120731022715</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="D27" t="n">
-        <v>136.6501652473657</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="E27" t="n">
-        <v>67.7123393847537</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="F27" t="n">
-        <v>67.7123393847537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T27" t="n">
-        <v>852.1701900122458</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U27" t="n">
-        <v>714.2462008914785</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V27" t="n">
-        <v>569.3937218025792</v>
+        <v>486.2760063960916</v>
       </c>
       <c r="W27" t="n">
-        <v>569.3937218025792</v>
+        <v>322.3382788107335</v>
       </c>
       <c r="X27" t="n">
-        <v>451.8418507398899</v>
+        <v>204.7864077480442</v>
       </c>
       <c r="Y27" t="n">
-        <v>334.3811811177795</v>
+        <v>87.32573812593382</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.84734478296475</v>
+        <v>229.849038017508</v>
       </c>
       <c r="C28" t="n">
-        <v>92.84734478296475</v>
+        <v>229.849038017508</v>
       </c>
       <c r="D28" t="n">
-        <v>92.84734478296475</v>
+        <v>229.849038017508</v>
       </c>
       <c r="E28" t="n">
-        <v>92.84734478296475</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="F28" t="n">
-        <v>92.84734478296475</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="G28" t="n">
         <v>92.84734478296475</v>
@@ -6408,28 +6408,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R28" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S28" t="n">
-        <v>438.5262858210698</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T28" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U28" t="n">
-        <v>99.6663332130473</v>
+        <v>464.3791415849444</v>
       </c>
       <c r="V28" t="n">
-        <v>92.84734478296475</v>
+        <v>299.994282521901</v>
       </c>
       <c r="W28" t="n">
-        <v>92.84734478296475</v>
+        <v>229.849038017508</v>
       </c>
       <c r="X28" t="n">
-        <v>92.84734478296475</v>
+        <v>229.849038017508</v>
       </c>
       <c r="Y28" t="n">
-        <v>92.84734478296475</v>
+        <v>229.849038017508</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>295.2445296723706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2445296723706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="D29" t="n">
-        <v>295.2445296723706</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>295.2445296723706</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F29" t="n">
-        <v>51.7957530282705</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>902.973837238177</v>
       </c>
       <c r="S29" t="n">
-        <v>782.1420829605706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="T29" t="n">
-        <v>782.1420829605706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="U29" t="n">
-        <v>782.1420829605706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="V29" t="n">
-        <v>782.1420829605706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="W29" t="n">
-        <v>782.1420829605706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="X29" t="n">
-        <v>538.6933063164706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="Y29" t="n">
-        <v>538.6933063164706</v>
+        <v>902.973837238177</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>134.150852458892</v>
+        <v>256.465473240555</v>
       </c>
       <c r="C30" t="n">
-        <v>134.150852458892</v>
+        <v>172.3120731022715</v>
       </c>
       <c r="D30" t="n">
-        <v>75.51607194048424</v>
+        <v>113.6772925838637</v>
       </c>
       <c r="E30" t="n">
-        <v>75.51607194048424</v>
+        <v>44.73946672125172</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>870.0695397998778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>758.1825743014874</v>
+        <v>852.1701900122458</v>
       </c>
       <c r="U30" t="n">
-        <v>620.25858518072</v>
+        <v>714.2462008914785</v>
       </c>
       <c r="V30" t="n">
-        <v>493.556158984164</v>
+        <v>569.3937218025792</v>
       </c>
       <c r="W30" t="n">
-        <v>329.6184313988058</v>
+        <v>569.3937218025792</v>
       </c>
       <c r="X30" t="n">
-        <v>212.0665603361165</v>
+        <v>451.8418507398899</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.0665603361165</v>
+        <v>334.3811811177795</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.00476870728434</v>
+        <v>203.4326704211164</v>
       </c>
       <c r="C31" t="n">
-        <v>90.00476870728434</v>
+        <v>203.4326704211164</v>
       </c>
       <c r="D31" t="n">
-        <v>90.00476870728434</v>
+        <v>143.6156601516242</v>
       </c>
       <c r="E31" t="n">
-        <v>90.00476870728434</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="F31" t="n">
-        <v>90.00476870728434</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G31" t="n">
-        <v>90.00476870728434</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H31" t="n">
-        <v>90.00476870728434</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I31" t="n">
-        <v>23.28371610542252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R31" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S31" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T31" t="n">
-        <v>510.9640952894842</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U31" t="n">
-        <v>510.9640952894842</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="V31" t="n">
-        <v>510.9640952894842</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="W31" t="n">
-        <v>311.8465543953671</v>
+        <v>464.1731123121159</v>
       </c>
       <c r="X31" t="n">
-        <v>311.8465543953671</v>
+        <v>326.4831905569421</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.3536043946805</v>
+        <v>203.4326704211164</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6724,25 +6724,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>860.251867841827</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>736.0720542948692</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>736.0720542948692</v>
       </c>
       <c r="V32" t="n">
-        <v>734.1637976141799</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
         <v>262.7299197543128</v>
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.36923268287529</v>
+        <v>245.758499144144</v>
       </c>
       <c r="C33" t="n">
-        <v>23.08573284886255</v>
+        <v>172.4749993101313</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>172.4749993101313</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>114.4070737517901</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.04204522578932</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6824,7 +6824,7 @@
         <v>270.0058095736687</v>
       </c>
       <c r="Y33" t="n">
-        <v>163.415040255829</v>
+        <v>245.758499144144</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>323.060688713022</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="C34" t="n">
-        <v>255.2940352322294</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="D34" t="n">
-        <v>206.3469252670079</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="E34" t="n">
-        <v>206.3469252670079</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="F34" t="n">
-        <v>206.3469252670079</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="G34" t="n">
-        <v>137.8285967762851</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="H34" t="n">
         <v>75.13229540780378</v>
@@ -6882,28 +6882,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R34" t="n">
-        <v>744.5964457193541</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="S34" t="n">
-        <v>619.4865832099307</v>
+        <v>541.5718789427324</v>
       </c>
       <c r="T34" t="n">
-        <v>619.4865832099307</v>
+        <v>412.4933382602694</v>
       </c>
       <c r="U34" t="n">
-        <v>569.5037598603409</v>
+        <v>412.4933382602694</v>
       </c>
       <c r="V34" t="n">
-        <v>569.5037598603409</v>
+        <v>258.9783795014968</v>
       </c>
       <c r="W34" t="n">
-        <v>569.5037598603409</v>
+        <v>258.9783795014968</v>
       </c>
       <c r="X34" t="n">
-        <v>442.6837384094378</v>
+        <v>194.7553451042196</v>
       </c>
       <c r="Y34" t="n">
-        <v>323.060688713022</v>
+        <v>75.13229540780378</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>374.1622989641742</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>130.7135223200741</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>130.7135223200741</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>729.9154879903429</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2005195507536</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2005195507536</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>264.4321054499486</v>
+        <v>255.9620833880109</v>
       </c>
       <c r="C36" t="n">
-        <v>191.1486056159359</v>
+        <v>182.6785835539981</v>
       </c>
       <c r="D36" t="n">
-        <v>143.3837254017989</v>
+        <v>134.9137033398611</v>
       </c>
       <c r="E36" t="n">
-        <v>85.31579984345764</v>
+        <v>76.84577778151987</v>
       </c>
       <c r="F36" t="n">
-        <v>39.95077131745688</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="G36" t="n">
         <v>31.48074925551912</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>891.8093404084193</v>
       </c>
       <c r="T36" t="n">
-        <v>891.8093404084193</v>
+        <v>790.7922752142996</v>
       </c>
       <c r="U36" t="n">
-        <v>764.7552515919226</v>
+        <v>663.7381863978029</v>
       </c>
       <c r="V36" t="n">
-        <v>630.7726728072942</v>
+        <v>529.7556076131746</v>
       </c>
       <c r="W36" t="n">
-        <v>477.7048455262068</v>
+        <v>376.6877803320872</v>
       </c>
       <c r="X36" t="n">
-        <v>371.0228747677883</v>
+        <v>270.0058095736687</v>
       </c>
       <c r="Y36" t="n">
-        <v>264.4321054499486</v>
+        <v>255.9620833880109</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412.4933382602694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>344.7266847794768</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>295.7795748142553</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>249.0360106789765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>203.3155926281804</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>134.7972641374576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>72.10096276897632</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>412.4933382602694</v>
       </c>
       <c r="U37" t="n">
-        <v>412.4933382602694</v>
+        <v>265.7242142575316</v>
       </c>
       <c r="V37" t="n">
-        <v>412.4933382602694</v>
+        <v>265.7242142575316</v>
       </c>
       <c r="W37" t="n">
-        <v>412.4933382602694</v>
+        <v>265.7242142575316</v>
       </c>
       <c r="X37" t="n">
-        <v>412.4933382602694</v>
+        <v>138.9041928066285</v>
       </c>
       <c r="Y37" t="n">
-        <v>412.4933382602694</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>775.0065151752026</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>557.4368205458811</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>339.8671259165596</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>775.0065151752026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>775.0065151752026</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>535.0962588794929</v>
+        <v>526.7761781452142</v>
       </c>
       <c r="C39" t="n">
-        <v>425.4567014567583</v>
+        <v>418.6180070124581</v>
       </c>
       <c r="D39" t="n">
-        <v>341.3357636538994</v>
+        <v>335.9784554995776</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9117805068363</v>
+        <v>243.035858642493</v>
       </c>
       <c r="F39" t="n">
-        <v>165.1906943921137</v>
+        <v>162.7961588177488</v>
       </c>
       <c r="G39" t="n">
-        <v>91.27334083312161</v>
+        <v>90.3601915487352</v>
       </c>
       <c r="H39" t="n">
-        <v>42.71767709909335</v>
+        <v>43.28591410468539</v>
       </c>
       <c r="I39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>17.23151981464226</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>230.4715775208402</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>856.934669109676</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5759907321129</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="U39" t="n">
-        <v>698.1658443268943</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="V39" t="n">
-        <v>698.1658443268943</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="W39" t="n">
-        <v>698.1658443268943</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="X39" t="n">
-        <v>698.1658443268943</v>
+        <v>721.0429326168129</v>
       </c>
       <c r="Y39" t="n">
-        <v>638.4981240411685</v>
+        <v>628.6966570169113</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>508.164889679996</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>508.164889679996</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>508.0303023807825</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>424.9306806567818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>342.8542050172639</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>237.9798189378192</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>138.927459980616</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>46.72025009430314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>58.70840667542865</v>
+        <v>62.20993667380697</v>
       </c>
       <c r="L40" t="n">
-        <v>149.546215451552</v>
+        <v>154.4996521527382</v>
       </c>
       <c r="M40" t="n">
-        <v>252.2579374121846</v>
+        <v>258.6632808161787</v>
       </c>
       <c r="N40" t="n">
-        <v>359.4724718360313</v>
+        <v>367.3297219428333</v>
       </c>
       <c r="O40" t="n">
-        <v>447.335432239341</v>
+        <v>456.6445890489509</v>
       </c>
       <c r="P40" t="n">
-        <v>508.164889679996</v>
+        <v>518.9259531924137</v>
       </c>
       <c r="Q40" t="n">
-        <v>508.164889679996</v>
+        <v>518.9259531924137</v>
       </c>
       <c r="R40" t="n">
-        <v>508.164889679996</v>
+        <v>518.9259531924137</v>
       </c>
       <c r="S40" t="n">
-        <v>508.164889679996</v>
+        <v>518.9259531924137</v>
       </c>
       <c r="T40" t="n">
-        <v>508.164889679996</v>
+        <v>518.9259531924137</v>
       </c>
       <c r="U40" t="n">
-        <v>508.164889679996</v>
+        <v>430.7930850563185</v>
       </c>
       <c r="V40" t="n">
-        <v>508.164889679996</v>
+        <v>242.4034549988025</v>
       </c>
       <c r="W40" t="n">
-        <v>508.164889679996</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>508.164889679996</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>508.164889679996</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>143.983483091863</v>
+        <v>141.5609448827254</v>
       </c>
       <c r="C41" t="n">
-        <v>143.983483091863</v>
+        <v>141.5609448827254</v>
       </c>
       <c r="D41" t="n">
-        <v>143.983483091863</v>
+        <v>141.5609448827254</v>
       </c>
       <c r="E41" t="n">
-        <v>143.983483091863</v>
+        <v>141.5609448827254</v>
       </c>
       <c r="F41" t="n">
-        <v>143.983483091863</v>
+        <v>141.5609448827254</v>
       </c>
       <c r="G41" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="H41" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="I41" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J41" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K41" t="n">
-        <v>113.5816217938686</v>
+        <v>113.4038372996472</v>
       </c>
       <c r="L41" t="n">
-        <v>113.5816217938686</v>
+        <v>241.9656257351171</v>
       </c>
       <c r="M41" t="n">
-        <v>177.1469957523409</v>
+        <v>262.3179925653022</v>
       </c>
       <c r="N41" t="n">
-        <v>307.9088673038003</v>
+        <v>390.8797810007721</v>
       </c>
       <c r="O41" t="n">
-        <v>438.6707388552596</v>
+        <v>519.441569436242</v>
       </c>
       <c r="P41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="Q41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="R41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="S41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="T41" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="U41" t="n">
-        <v>528.3307941473106</v>
+        <v>403.9051718707263</v>
       </c>
       <c r="V41" t="n">
-        <v>528.3307941473106</v>
+        <v>403.9051718707263</v>
       </c>
       <c r="W41" t="n">
-        <v>528.3307941473106</v>
+        <v>403.9051718707263</v>
       </c>
       <c r="X41" t="n">
-        <v>410.8172175096967</v>
+        <v>272.7330583767259</v>
       </c>
       <c r="Y41" t="n">
-        <v>277.4003503007798</v>
+        <v>141.5609448827254</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>261.497059729477</v>
+        <v>377.5442206192251</v>
       </c>
       <c r="C42" t="n">
-        <v>141.7658869385153</v>
+        <v>377.5442206192251</v>
       </c>
       <c r="D42" t="n">
-        <v>141.7658869385153</v>
+        <v>377.5442206192251</v>
       </c>
       <c r="E42" t="n">
-        <v>141.7658869385153</v>
+        <v>274.5100083939134</v>
       </c>
       <c r="F42" t="n">
-        <v>49.95318545556562</v>
+        <v>184.1786932009422</v>
       </c>
       <c r="G42" t="n">
-        <v>49.95318545556562</v>
+        <v>101.6511105637015</v>
       </c>
       <c r="H42" t="n">
-        <v>46.14438853562437</v>
+        <v>44.48521775142457</v>
       </c>
       <c r="I42" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J42" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K42" t="n">
-        <v>135.9241759407836</v>
+        <v>64.36164561650304</v>
       </c>
       <c r="L42" t="n">
-        <v>135.9241759407836</v>
+        <v>64.36164561650304</v>
       </c>
       <c r="M42" t="n">
-        <v>266.686047492243</v>
+        <v>64.36164561650304</v>
       </c>
       <c r="N42" t="n">
-        <v>397.4479190437024</v>
+        <v>192.9234340519729</v>
       </c>
       <c r="O42" t="n">
-        <v>458.9362356339813</v>
+        <v>321.4852224874429</v>
       </c>
       <c r="P42" t="n">
-        <v>458.9362356339813</v>
+        <v>450.0470109229128</v>
       </c>
       <c r="Q42" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="R42" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="S42" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="T42" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="U42" t="n">
-        <v>394.9139269383938</v>
+        <v>519.441569436242</v>
       </c>
       <c r="V42" t="n">
-        <v>261.497059729477</v>
+        <v>519.441569436242</v>
       </c>
       <c r="W42" t="n">
-        <v>261.497059729477</v>
+        <v>519.441569436242</v>
       </c>
       <c r="X42" t="n">
-        <v>261.497059729477</v>
+        <v>508.7163341132257</v>
       </c>
       <c r="Y42" t="n">
-        <v>261.497059729477</v>
+        <v>377.5442206192251</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>441.0590091015347</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="C43" t="n">
-        <v>326.8446826637932</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="D43" t="n">
-        <v>326.8446826637932</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="E43" t="n">
-        <v>326.8446826637932</v>
+        <v>205.2689222593518</v>
       </c>
       <c r="F43" t="n">
-        <v>234.6765916560482</v>
+        <v>205.2689222593518</v>
       </c>
       <c r="G43" t="n">
-        <v>119.7105902083764</v>
+        <v>156.1503787820861</v>
       </c>
       <c r="H43" t="n">
-        <v>10.56661588294621</v>
+        <v>48.48779074663437</v>
       </c>
       <c r="I43" t="n">
-        <v>10.56661588294621</v>
+        <v>48.48779074663437</v>
       </c>
       <c r="J43" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K43" t="n">
-        <v>42.15271052133325</v>
+        <v>43.42683272991973</v>
       </c>
       <c r="L43" t="n">
-        <v>123.0997270750573</v>
+        <v>125.8257559864516</v>
       </c>
       <c r="M43" t="n">
-        <v>215.9206568132905</v>
+        <v>220.0985924274927</v>
       </c>
       <c r="N43" t="n">
-        <v>313.2443990147379</v>
+        <v>318.874241331748</v>
       </c>
       <c r="O43" t="n">
-        <v>391.2165671956482</v>
+        <v>398.2983162154661</v>
       </c>
       <c r="P43" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="Q43" t="n">
-        <v>442.1552324139038</v>
+        <v>419.85976399577</v>
       </c>
       <c r="R43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="S43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="T43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="U43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="V43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="W43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="X43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
       <c r="Y43" t="n">
-        <v>442.1552324139038</v>
+        <v>296.9787730616011</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.56661588294621</v>
+        <v>257.097342448241</v>
       </c>
       <c r="C44" t="n">
-        <v>10.56661588294621</v>
+        <v>257.097342448241</v>
       </c>
       <c r="D44" t="n">
-        <v>10.56661588294621</v>
+        <v>257.097342448241</v>
       </c>
       <c r="E44" t="n">
-        <v>10.56661588294621</v>
+        <v>257.097342448241</v>
       </c>
       <c r="F44" t="n">
-        <v>10.56661588294621</v>
+        <v>257.097342448241</v>
       </c>
       <c r="G44" t="n">
-        <v>10.56661588294621</v>
+        <v>257.097342448241</v>
       </c>
       <c r="H44" t="n">
-        <v>10.56661588294621</v>
+        <v>141.5609448827254</v>
       </c>
       <c r="I44" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J44" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K44" t="n">
-        <v>113.5816217938686</v>
+        <v>44.09614883778136</v>
       </c>
       <c r="L44" t="n">
-        <v>244.3434933453279</v>
+        <v>172.6579372732513</v>
       </c>
       <c r="M44" t="n">
-        <v>307.9088673038003</v>
+        <v>301.2197257087212</v>
       </c>
       <c r="N44" t="n">
-        <v>307.9088673038003</v>
+        <v>429.7815141441911</v>
       </c>
       <c r="O44" t="n">
-        <v>438.6707388552596</v>
+        <v>429.7815141441911</v>
       </c>
       <c r="P44" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="Q44" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="R44" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="S44" t="n">
-        <v>528.3307941473106</v>
+        <v>388.2694559422415</v>
       </c>
       <c r="T44" t="n">
-        <v>528.3307941473106</v>
+        <v>388.2694559422415</v>
       </c>
       <c r="U44" t="n">
-        <v>394.9139269383938</v>
+        <v>388.2694559422415</v>
       </c>
       <c r="V44" t="n">
-        <v>394.9139269383938</v>
+        <v>257.097342448241</v>
       </c>
       <c r="W44" t="n">
-        <v>261.497059729477</v>
+        <v>257.097342448241</v>
       </c>
       <c r="X44" t="n">
-        <v>261.497059729477</v>
+        <v>257.097342448241</v>
       </c>
       <c r="Y44" t="n">
-        <v>128.0801925205602</v>
+        <v>257.097342448241</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>261.497059729477</v>
+        <v>303.8973674080563</v>
       </c>
       <c r="C45" t="n">
-        <v>141.7658869385153</v>
+        <v>185.6475809070731</v>
       </c>
       <c r="D45" t="n">
-        <v>141.7658869385153</v>
+        <v>92.91641402596555</v>
       </c>
       <c r="E45" t="n">
-        <v>37.25028842322516</v>
+        <v>92.91641402596555</v>
       </c>
       <c r="F45" t="n">
-        <v>10.56661588294621</v>
+        <v>92.91641402596555</v>
       </c>
       <c r="G45" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="H45" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="I45" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J45" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K45" t="n">
-        <v>135.9241759407836</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="L45" t="n">
-        <v>266.686047492243</v>
+        <v>138.9506198241947</v>
       </c>
       <c r="M45" t="n">
-        <v>397.4479190437024</v>
+        <v>267.5124082596647</v>
       </c>
       <c r="N45" t="n">
-        <v>528.2097905951617</v>
+        <v>321.4852224874429</v>
       </c>
       <c r="O45" t="n">
-        <v>528.3307941473106</v>
+        <v>321.4852224874429</v>
       </c>
       <c r="P45" t="n">
-        <v>528.3307941473106</v>
+        <v>450.0470109229128</v>
       </c>
       <c r="Q45" t="n">
-        <v>528.3307941473106</v>
+        <v>519.441569436242</v>
       </c>
       <c r="R45" t="n">
-        <v>528.3307941473106</v>
+        <v>474.4752827692715</v>
       </c>
       <c r="S45" t="n">
-        <v>528.3307941473106</v>
+        <v>357.2611810000842</v>
       </c>
       <c r="T45" t="n">
-        <v>394.9139269383938</v>
+        <v>303.8973674080563</v>
       </c>
       <c r="U45" t="n">
-        <v>261.497059729477</v>
+        <v>303.8973674080563</v>
       </c>
       <c r="V45" t="n">
-        <v>261.497059729477</v>
+        <v>303.8973674080563</v>
       </c>
       <c r="W45" t="n">
-        <v>261.497059729477</v>
+        <v>303.8973674080563</v>
       </c>
       <c r="X45" t="n">
-        <v>261.497059729477</v>
+        <v>303.8973674080563</v>
       </c>
       <c r="Y45" t="n">
-        <v>261.497059729477</v>
+        <v>303.8973674080563</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.56661588294621</v>
+        <v>194.0715525924331</v>
       </c>
       <c r="C46" t="n">
-        <v>10.56661588294621</v>
+        <v>194.0715525924331</v>
       </c>
       <c r="D46" t="n">
-        <v>10.56661588294621</v>
+        <v>194.0715525924331</v>
       </c>
       <c r="E46" t="n">
-        <v>10.56661588294621</v>
+        <v>194.0715525924331</v>
       </c>
       <c r="F46" t="n">
-        <v>10.56661588294621</v>
+        <v>118.0514194241766</v>
       </c>
       <c r="G46" t="n">
-        <v>10.56661588294621</v>
+        <v>118.0514194241766</v>
       </c>
       <c r="H46" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="I46" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="J46" t="n">
-        <v>10.56661588294621</v>
+        <v>10.38883138872484</v>
       </c>
       <c r="K46" t="n">
-        <v>42.15271052133325</v>
+        <v>43.42683272991973</v>
       </c>
       <c r="L46" t="n">
-        <v>123.0997270750573</v>
+        <v>125.8257559864516</v>
       </c>
       <c r="M46" t="n">
-        <v>215.9206568132905</v>
+        <v>220.0985924274927</v>
       </c>
       <c r="N46" t="n">
-        <v>313.2443990147379</v>
+        <v>318.874241331748</v>
       </c>
       <c r="O46" t="n">
-        <v>391.2165671956482</v>
+        <v>398.2983162154661</v>
       </c>
       <c r="P46" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="Q46" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="R46" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="S46" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="T46" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="U46" t="n">
-        <v>442.1552324139038</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="V46" t="n">
-        <v>410.8172175096967</v>
+        <v>450.6888881365296</v>
       </c>
       <c r="W46" t="n">
-        <v>277.4003503007798</v>
+        <v>319.5167746425291</v>
       </c>
       <c r="X46" t="n">
-        <v>143.983483091863</v>
+        <v>319.5167746425291</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.56661588294621</v>
+        <v>319.5167746425291</v>
       </c>
     </row>
   </sheetData>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -8941,10 +8941,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,19 +9014,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,16 +9090,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>344.6980053108186</v>
+        <v>346.9203114885858</v>
       </c>
       <c r="M17" t="n">
-        <v>249.1868635891309</v>
+        <v>341.5001297458713</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>340.5669601151894</v>
       </c>
       <c r="O17" t="n">
-        <v>339.0298017625181</v>
+        <v>336.7610414142813</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>246.7730293151904</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>175.1216961226412</v>
       </c>
       <c r="M18" t="n">
-        <v>246.6643478854424</v>
+        <v>253.2879304406169</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>242.4956086019318</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5278347852758</v>
+        <v>253.750140963043</v>
       </c>
       <c r="P18" t="n">
-        <v>242.9059977551616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>344.6980053108186</v>
+        <v>346.9203114885858</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>341.5001297458713</v>
       </c>
       <c r="N20" t="n">
-        <v>338.3446539374223</v>
+        <v>336.0758935891855</v>
       </c>
       <c r="O20" t="n">
-        <v>339.0298017625182</v>
+        <v>341.2521079402853</v>
       </c>
       <c r="P20" t="n">
-        <v>231.7077481925095</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>172.2762392879555</v>
+        <v>248.9953354929575</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>249.7082762984727</v>
       </c>
       <c r="M21" t="n">
-        <v>251.0656242628497</v>
+        <v>253.2879304406169</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>167.9090284261003</v>
       </c>
       <c r="O21" t="n">
-        <v>251.5278347852758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>242.9059977551616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,10 +10831,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>339.6742254965835</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5280316050465</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>298.8430447887824</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9902421274727</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>365.6268073290478</v>
       </c>
       <c r="M41" t="n">
-        <v>294.5536816701741</v>
+        <v>250.904179520389</v>
       </c>
       <c r="N41" t="n">
-        <v>361.4957621334186</v>
+        <v>359.2734559556515</v>
       </c>
       <c r="O41" t="n">
-        <v>362.1809099585143</v>
+        <v>359.9586037807472</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>192.3594331438319</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>274.216732458846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>263.424410620161</v>
+        <v>261.2021044423938</v>
       </c>
       <c r="O42" t="n">
-        <v>204.7056551416959</v>
+        <v>272.4566368035049</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>263.8347997733907</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>254.1376464480679</v>
       </c>
       <c r="L44" t="n">
-        <v>367.8491135068149</v>
+        <v>365.6268073290478</v>
       </c>
       <c r="M44" t="n">
-        <v>294.5536816701741</v>
+        <v>360.2066255863332</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>359.2734559556515</v>
       </c>
       <c r="O44" t="n">
-        <v>362.1809099585143</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>270.6370783167018</v>
+        <v>268.4147721389347</v>
       </c>
       <c r="M45" t="n">
-        <v>274.216732458846</v>
+        <v>271.9944262810789</v>
       </c>
       <c r="N45" t="n">
-        <v>263.424410620161</v>
+        <v>185.8597062528062</v>
       </c>
       <c r="O45" t="n">
-        <v>142.7184702546958</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>263.8347997733907</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23509,7 +23509,7 @@
         <v>396.8853465271666</v>
       </c>
       <c r="G14" t="n">
-        <v>379.6917471059594</v>
+        <v>405.3120383005902</v>
       </c>
       <c r="H14" t="n">
         <v>329.4841029012223</v>
@@ -23548,13 +23548,13 @@
         <v>199.0293703717005</v>
       </c>
       <c r="T14" t="n">
-        <v>187.4848591549557</v>
+        <v>213.1051503495866</v>
       </c>
       <c r="U14" t="n">
-        <v>215.7346624986609</v>
+        <v>241.3549536932917</v>
       </c>
       <c r="V14" t="n">
-        <v>295.1952067713593</v>
+        <v>317.7615592555901</v>
       </c>
       <c r="W14" t="n">
         <v>339.2502695028682</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.9221932406917</v>
+        <v>156.5424844353225</v>
       </c>
       <c r="C15" t="n">
-        <v>137.0975085791401</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D15" t="n">
-        <v>114.8880138658631</v>
+        <v>137.4543663500939</v>
       </c>
       <c r="E15" t="n">
         <v>147.6543812408561</v>
@@ -23639,7 +23639,7 @@
         <v>241.7042839463748</v>
       </c>
       <c r="X15" t="n">
-        <v>170.1619947943018</v>
+        <v>195.7822859889327</v>
       </c>
       <c r="Y15" t="n">
         <v>195.6919965627596</v>
@@ -23679,7 +23679,7 @@
         <v>83.36848090212797</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.55105284251875</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R16" t="n">
-        <v>141.6824009679939</v>
+        <v>167.3026921626247</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4056076277966</v>
+        <v>214.0258988224275</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6673303408439</v>
+        <v>217.9548902137367</v>
       </c>
       <c r="U16" t="n">
         <v>276.3283301419461</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.3297058249001</v>
+        <v>327.8631333978215</v>
       </c>
       <c r="C17" t="n">
-        <v>311.8687559324271</v>
+        <v>310.4021835053485</v>
       </c>
       <c r="D17" t="n">
-        <v>301.2789057821025</v>
+        <v>299.8123333550238</v>
       </c>
       <c r="E17" t="n">
-        <v>328.5262342336814</v>
+        <v>327.0596618066027</v>
       </c>
       <c r="F17" t="n">
-        <v>353.471909903131</v>
+        <v>352.0053374760523</v>
       </c>
       <c r="G17" t="n">
-        <v>252.9670113357232</v>
+        <v>262.5276771958944</v>
       </c>
       <c r="H17" t="n">
-        <v>177.1390759363553</v>
+        <v>284.604093850108</v>
       </c>
       <c r="I17" t="n">
-        <v>48.14016339099408</v>
+        <v>155.6051813047468</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5180373303649759</v>
+        <v>94.99840967549059</v>
       </c>
       <c r="S17" t="n">
-        <v>155.6159337476649</v>
+        <v>154.1493613205863</v>
       </c>
       <c r="T17" t="n">
-        <v>169.6917137255509</v>
+        <v>57.07124477987372</v>
       </c>
       <c r="U17" t="n">
-        <v>197.9415170692561</v>
+        <v>196.4749446421774</v>
       </c>
       <c r="V17" t="n">
-        <v>274.3481226315545</v>
+        <v>161.7276536858773</v>
       </c>
       <c r="W17" t="n">
-        <v>295.8368328788326</v>
+        <v>183.2163639331553</v>
       </c>
       <c r="X17" t="n">
-        <v>316.3269648398886</v>
+        <v>314.8603924128099</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.8338028174732</v>
+        <v>331.3672303903945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113.1290478112869</v>
+        <v>0.5085788656097066</v>
       </c>
       <c r="C18" t="n">
-        <v>119.3043631497353</v>
+        <v>6.683894204058106</v>
       </c>
       <c r="D18" t="n">
-        <v>94.04092972605831</v>
+        <v>92.57435729897966</v>
       </c>
       <c r="E18" t="n">
-        <v>104.2409446168205</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>90.19850412772479</v>
       </c>
       <c r="G18" t="n">
-        <v>83.93938132463019</v>
+        <v>82.47280889755154</v>
       </c>
       <c r="H18" t="n">
-        <v>58.83130839791602</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>31.71062879543381</v>
+        <v>30.89391006113915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.75369831406269</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>118.2790352652574</v>
+        <v>116.8124628381787</v>
       </c>
       <c r="T18" t="n">
-        <v>37.82900251540974</v>
+        <v>145.2940204291625</v>
       </c>
       <c r="U18" t="n">
-        <v>63.60565590156295</v>
+        <v>171.0706738153157</v>
       </c>
       <c r="V18" t="n">
-        <v>70.46486097001343</v>
+        <v>177.9298788837662</v>
       </c>
       <c r="W18" t="n">
-        <v>198.2908473223392</v>
+        <v>196.8242748952605</v>
       </c>
       <c r="X18" t="n">
-        <v>152.368849364897</v>
+        <v>150.9022769378184</v>
       </c>
       <c r="Y18" t="n">
-        <v>152.2785599387239</v>
+        <v>150.8119875116453</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.49625400252545</v>
+        <v>124.9612719162782</v>
       </c>
       <c r="C19" t="n">
-        <v>113.8426852600474</v>
+        <v>112.3761128329687</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.74476475255327</v>
       </c>
       <c r="E19" t="n">
-        <v>93.02982680798873</v>
+        <v>91.56325438091008</v>
       </c>
       <c r="F19" t="n">
-        <v>92.0169121843508</v>
+        <v>90.55033975727216</v>
       </c>
       <c r="G19" t="n">
-        <v>114.5868435198783</v>
+        <v>113.1202710927997</v>
       </c>
       <c r="H19" t="n">
-        <v>108.8230366688591</v>
+        <v>107.3564642417805</v>
       </c>
       <c r="I19" t="n">
-        <v>102.0463390886778</v>
+        <v>100.5797666615992</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>38.48847185101368</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.75790741311394</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.17710188327757</v>
+        <v>122.4226831115104</v>
       </c>
       <c r="S19" t="n">
-        <v>170.6124621983918</v>
+        <v>57.99199325271462</v>
       </c>
       <c r="T19" t="n">
-        <v>65.60986324886966</v>
+        <v>173.0748811626224</v>
       </c>
       <c r="U19" t="n">
-        <v>232.9148935179105</v>
+        <v>120.2944245722333</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7335074852476</v>
+        <v>197.2669350581689</v>
       </c>
       <c r="W19" t="n">
-        <v>233.1188624980106</v>
+        <v>120.4983935523334</v>
       </c>
       <c r="X19" t="n">
-        <v>172.3055195504567</v>
+        <v>104.2259300558318</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.1805175135144</v>
+        <v>163.7139450864357</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.3297058249001</v>
+        <v>327.8631333978215</v>
       </c>
       <c r="C20" t="n">
-        <v>311.8687559324271</v>
+        <v>310.4021835053485</v>
       </c>
       <c r="D20" t="n">
-        <v>301.2789057821025</v>
+        <v>299.8123333550238</v>
       </c>
       <c r="E20" t="n">
-        <v>328.5262342336814</v>
+        <v>327.0596618066027</v>
       </c>
       <c r="F20" t="n">
-        <v>353.471909903131</v>
+        <v>352.0053374760523</v>
       </c>
       <c r="G20" t="n">
-        <v>361.8986016765546</v>
+        <v>360.4320292494759</v>
       </c>
       <c r="H20" t="n">
-        <v>286.0706662771867</v>
+        <v>284.604093850108</v>
       </c>
       <c r="I20" t="n">
-        <v>157.0717537318255</v>
+        <v>155.6051813047468</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>96.46498210256924</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>155.6159337476649</v>
+        <v>42.99546480198771</v>
       </c>
       <c r="T20" t="n">
-        <v>169.6917137255509</v>
+        <v>57.07124477987372</v>
       </c>
       <c r="U20" t="n">
-        <v>89.00992672842465</v>
+        <v>85.32104812357886</v>
       </c>
       <c r="V20" t="n">
-        <v>165.4165322907231</v>
+        <v>269.9756078263849</v>
       </c>
       <c r="W20" t="n">
-        <v>186.9052425380012</v>
+        <v>294.3702604517539</v>
       </c>
       <c r="X20" t="n">
-        <v>220.3800200676843</v>
+        <v>314.8603924128099</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.8338028174732</v>
+        <v>331.3672303903945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.197457470455475</v>
+        <v>111.6624753842082</v>
       </c>
       <c r="C21" t="n">
-        <v>119.3043631497353</v>
+        <v>117.8377907226566</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>92.57435729897966</v>
       </c>
       <c r="E21" t="n">
-        <v>104.2409446168205</v>
+        <v>102.7743721897419</v>
       </c>
       <c r="F21" t="n">
-        <v>91.66507655480343</v>
+        <v>90.19850412772479</v>
       </c>
       <c r="G21" t="n">
-        <v>82.03336627848419</v>
+        <v>82.47280889755154</v>
       </c>
       <c r="H21" t="n">
-        <v>58.83130839791602</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.99249701283463</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.75369831406269</v>
+        <v>45.28712588698404</v>
       </c>
       <c r="S21" t="n">
-        <v>118.2790352652574</v>
+        <v>110.7987713411906</v>
       </c>
       <c r="T21" t="n">
-        <v>146.7605928562411</v>
+        <v>34.14012391056397</v>
       </c>
       <c r="U21" t="n">
-        <v>172.5372462423944</v>
+        <v>59.91677729671719</v>
       </c>
       <c r="V21" t="n">
-        <v>179.3964513108448</v>
+        <v>66.77598236516764</v>
       </c>
       <c r="W21" t="n">
-        <v>89.35925698150776</v>
+        <v>196.8242748952605</v>
       </c>
       <c r="X21" t="n">
-        <v>152.368849364897</v>
+        <v>150.9022769378184</v>
       </c>
       <c r="Y21" t="n">
-        <v>43.34696959789248</v>
+        <v>150.8119875116453</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.49625400252543</v>
+        <v>124.9612719162782</v>
       </c>
       <c r="C22" t="n">
-        <v>113.8426852600474</v>
+        <v>112.3761128329687</v>
       </c>
       <c r="D22" t="n">
-        <v>95.21133717963191</v>
+        <v>93.74476475255327</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>91.56325438091008</v>
       </c>
       <c r="F22" t="n">
-        <v>92.0169121843508</v>
+        <v>90.55033975727216</v>
       </c>
       <c r="G22" t="n">
-        <v>5.655253179046895</v>
+        <v>113.1202710927997</v>
       </c>
       <c r="H22" t="n">
-        <v>108.8230366688591</v>
+        <v>107.3564642417805</v>
       </c>
       <c r="I22" t="n">
-        <v>102.0463390886778</v>
+        <v>100.5797666615992</v>
       </c>
       <c r="J22" t="n">
-        <v>39.95504427809233</v>
+        <v>38.48847185101368</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.84078944889835</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>123.889255538589</v>
+        <v>122.4226831115104</v>
       </c>
       <c r="S22" t="n">
-        <v>170.6124621983918</v>
+        <v>57.99199325271462</v>
       </c>
       <c r="T22" t="n">
-        <v>65.60986324886964</v>
+        <v>61.92098464402386</v>
       </c>
       <c r="U22" t="n">
-        <v>232.9148935179105</v>
+        <v>120.2944245722333</v>
       </c>
       <c r="V22" t="n">
-        <v>198.7335074852476</v>
+        <v>130.6539179906226</v>
       </c>
       <c r="W22" t="n">
-        <v>233.1188624980106</v>
+        <v>231.6522900709319</v>
       </c>
       <c r="X22" t="n">
-        <v>172.3055195504567</v>
+        <v>170.8389471233781</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1805175135144</v>
+        <v>163.7139450864357</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G23" t="n">
-        <v>286.6752603718083</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H23" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>19.78582081366235</v>
       </c>
       <c r="W23" t="n">
         <v>18.83004698833889</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>17.92876117576478</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2538447959055077</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
         <v>22.83881138508139</v>
@@ -24344,10 +24344,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>55.57681761185503</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
         <v>3.962547265257697</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>54.48175391164958</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
         <v>136.3130225376221</v>
@@ -24445,25 +24445,25 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>34.86197004193343</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
         <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>292.5337372208467</v>
+        <v>51.51944834318766</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>76.46512401263732</v>
       </c>
       <c r="G26" t="n">
-        <v>84.89181578606093</v>
+        <v>113.6207190202779</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>102.9655728779997</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
@@ -24511,7 +24511,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>65.44498127485717</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>22.74314393686697</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
         <v>22.83881138508139</v>
@@ -24572,7 +24572,7 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>155.9902119266312</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>127.6825734258269</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>113.4735082155605</v>
       </c>
       <c r="E29" t="n">
         <v>292.5337372208467</v>
@@ -24694,10 +24694,10 @@
         <v>76.46512401263732</v>
       </c>
       <c r="G29" t="n">
-        <v>293.7166408448428</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H29" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I29" t="n">
         <v>121.0792567189908</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
         <v>133.6992167127163</v>
@@ -24745,7 +24745,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
         <v>296.8413058046385</v>
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.30765055212159</v>
       </c>
       <c r="G30" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>17.9685523634197</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>56.02441517151617</v>
@@ -24861,7 +24861,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>75.64242276503954</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
         <v>196.9223965050758</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.36800556621229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>282.5760075108374</v>
       </c>
       <c r="C32" t="n">
-        <v>24.10076874070535</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D32" t="n">
-        <v>254.5252074680398</v>
+        <v>13.51091859038075</v>
       </c>
       <c r="E32" t="n">
         <v>281.7725359196186</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>108.8622354336022</v>
+        <v>55.80628442998761</v>
       </c>
       <c r="T32" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>151.1878187551933</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.37788436116051</v>
+        <v>8.068845687110809</v>
       </c>
       <c r="X32" t="n">
         <v>269.5732665258259</v>
       </c>
       <c r="Y32" t="n">
-        <v>45.06581562575138</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>43.52068757073229</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>81.52002429943182</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E34" t="n">
         <v>46.27612849392604</v>
@@ -25089,10 +25089,10 @@
         <v>45.26321387028811</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>136.6782000877539</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>61.97101718308958</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.29062186739543</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C35" t="n">
-        <v>24.10076874070535</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
-        <v>13.51091859038075</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
-        <v>40.75824704195958</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F35" t="n">
-        <v>306.7182115890683</v>
+        <v>105.7103732083547</v>
       </c>
       <c r="G35" t="n">
-        <v>315.1449033624919</v>
+        <v>74.13061448483285</v>
       </c>
       <c r="H35" t="n">
         <v>239.316967963124</v>
       </c>
       <c r="I35" t="n">
-        <v>110.3180554177628</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S35" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>227.5944243174918</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>28.80036116924911</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>91.62157270085999</v>
       </c>
     </row>
     <row r="37">
@@ -25314,25 +25314,25 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
-        <v>3.001019312439198</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>40.85976244113729</v>
       </c>
       <c r="V37" t="n">
         <v>151.9798091711849</v>
@@ -25377,10 +25377,10 @@
         <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>318.5685045236721</v>
+        <v>76.08764321893437</v>
       </c>
       <c r="C38" t="n">
-        <v>85.7135569481708</v>
+        <v>299.6409822041204</v>
       </c>
       <c r="D38" t="n">
-        <v>75.12370679784621</v>
+        <v>289.0511320537958</v>
       </c>
       <c r="E38" t="n">
-        <v>213.7497805745833</v>
+        <v>316.2984605053746</v>
       </c>
       <c r="F38" t="n">
-        <v>127.3167109188747</v>
+        <v>128.9587505313822</v>
       </c>
       <c r="G38" t="n">
-        <v>351.1374003753265</v>
+        <v>349.6708279482479</v>
       </c>
       <c r="H38" t="n">
-        <v>275.3094649759586</v>
+        <v>32.82860367122095</v>
       </c>
       <c r="I38" t="n">
-        <v>146.3105524305974</v>
+        <v>144.8439800035188</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.23720837426254</v>
       </c>
       <c r="S38" t="n">
-        <v>144.8547324464369</v>
+        <v>143.3881600193582</v>
       </c>
       <c r="T38" t="n">
-        <v>158.9305124243228</v>
+        <v>157.4639399972442</v>
       </c>
       <c r="U38" t="n">
-        <v>187.180315768028</v>
+        <v>185.7137433409493</v>
       </c>
       <c r="V38" t="n">
-        <v>263.5869213303264</v>
+        <v>262.1203489032478</v>
       </c>
       <c r="W38" t="n">
-        <v>285.0756315776045</v>
+        <v>283.6090591505259</v>
       </c>
       <c r="X38" t="n">
-        <v>305.5657635386605</v>
+        <v>304.0991911115819</v>
       </c>
       <c r="Y38" t="n">
-        <v>322.0726015162451</v>
+        <v>79.59174021150739</v>
       </c>
     </row>
     <row r="39">
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575599</v>
       </c>
       <c r="S39" t="n">
-        <v>107.5178339640293</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>135.9993915550131</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>160.3094725140877</v>
       </c>
       <c r="V39" t="n">
-        <v>168.6352500096168</v>
+        <v>167.1686775825381</v>
       </c>
       <c r="W39" t="n">
-        <v>187.5296460211111</v>
+        <v>186.0630735940325</v>
       </c>
       <c r="X39" t="n">
-        <v>141.607648063669</v>
+        <v>140.1410756365903</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.44631555462728</v>
+        <v>48.62797336651468</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.6666430421288</v>
+        <v>114.2000706150502</v>
       </c>
       <c r="C40" t="n">
-        <v>103.0814839588193</v>
+        <v>101.6149115317407</v>
       </c>
       <c r="D40" t="n">
-        <v>84.31689445218251</v>
+        <v>82.98356345132521</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>80.80205307968203</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>79.7891384560441</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.3590697915716</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>96.59526294055243</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.81856536037114</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>27.72727054978563</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.99670611188589</v>
+        <v>20.53013368480724</v>
       </c>
       <c r="R40" t="n">
-        <v>113.128054237361</v>
+        <v>111.6614818102823</v>
       </c>
       <c r="S40" t="n">
-        <v>159.8512608971637</v>
+        <v>158.3846884700851</v>
       </c>
       <c r="T40" t="n">
-        <v>163.780252288473</v>
+        <v>162.3136798613943</v>
       </c>
       <c r="U40" t="n">
-        <v>222.1536922166824</v>
+        <v>133.4355803348696</v>
       </c>
       <c r="V40" t="n">
-        <v>187.9723061840195</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>222.3576611967825</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>161.5443182492286</v>
+        <v>160.07774582215</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4193162122863</v>
+        <v>152.9527437852076</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>196.4765052013892</v>
+        <v>327.0926313111382</v>
       </c>
       <c r="C41" t="n">
-        <v>311.0982538457438</v>
+        <v>309.6316814186652</v>
       </c>
       <c r="D41" t="n">
-        <v>300.5084036954192</v>
+        <v>299.0418312683406</v>
       </c>
       <c r="E41" t="n">
-        <v>327.7557321469981</v>
+        <v>326.2891597199194</v>
       </c>
       <c r="F41" t="n">
-        <v>352.7014078164477</v>
+        <v>351.2348353893691</v>
       </c>
       <c r="G41" t="n">
-        <v>229.0454010530437</v>
+        <v>229.8011348037322</v>
       </c>
       <c r="H41" t="n">
-        <v>285.3001641905034</v>
+        <v>283.8335917634248</v>
       </c>
       <c r="I41" t="n">
-        <v>156.3012516451422</v>
+        <v>154.8346792180636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>95.69448001588599</v>
+        <v>94.22790758880734</v>
       </c>
       <c r="S41" t="n">
-        <v>154.8454316609817</v>
+        <v>153.378859233903</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9212116388676</v>
+        <v>167.454639211789</v>
       </c>
       <c r="U41" t="n">
-        <v>197.1710149825728</v>
+        <v>81.32340896563362</v>
       </c>
       <c r="V41" t="n">
-        <v>273.5776205448712</v>
+        <v>272.1110481177926</v>
       </c>
       <c r="W41" t="n">
-        <v>295.0663307921493</v>
+        <v>293.5997583650707</v>
       </c>
       <c r="X41" t="n">
-        <v>199.2180218819675</v>
+        <v>184.2294979670662</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.9806021939622</v>
+        <v>200.7363359446507</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.3585457246036</v>
+        <v>110.891973297525</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>117.0672886359734</v>
       </c>
       <c r="D42" t="n">
-        <v>93.27042763937506</v>
+        <v>91.80385521229641</v>
       </c>
       <c r="E42" t="n">
-        <v>103.4704425301372</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>83.16887923794694</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>54.29009736049093</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.98319622737944</v>
+        <v>44.51662380030079</v>
       </c>
       <c r="S42" t="n">
-        <v>117.5085331785741</v>
+        <v>116.0419607514955</v>
       </c>
       <c r="T42" t="n">
-        <v>145.9900907695579</v>
+        <v>144.5235183424793</v>
       </c>
       <c r="U42" t="n">
-        <v>39.68404561888349</v>
+        <v>170.3001717286325</v>
       </c>
       <c r="V42" t="n">
-        <v>46.54325068733391</v>
+        <v>177.1593767970829</v>
       </c>
       <c r="W42" t="n">
-        <v>197.5203452356559</v>
+        <v>196.0537728085773</v>
       </c>
       <c r="X42" t="n">
-        <v>151.5983472782138</v>
+        <v>139.5137918813489</v>
       </c>
       <c r="Y42" t="n">
-        <v>151.5080578520407</v>
+        <v>20.18109306590151</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.5720811774281</v>
+        <v>124.190769829595</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.6056107462855</v>
       </c>
       <c r="D43" t="n">
-        <v>94.44083509294866</v>
+        <v>92.97426266587001</v>
       </c>
       <c r="E43" t="n">
-        <v>92.25932472130548</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>89.7798376705889</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.72241096362339</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>101.2758370019946</v>
+        <v>99.80926457491594</v>
       </c>
       <c r="J43" t="n">
-        <v>39.18454219140908</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.98740532643069</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>123.1187534519058</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>169.8419601117085</v>
+        <v>168.3753876846299</v>
       </c>
       <c r="T43" t="n">
-        <v>173.7709515030178</v>
+        <v>172.3043790759392</v>
       </c>
       <c r="U43" t="n">
-        <v>232.1443914312272</v>
+        <v>230.6778190041485</v>
       </c>
       <c r="V43" t="n">
-        <v>197.9630053985643</v>
+        <v>196.4964329714857</v>
       </c>
       <c r="W43" t="n">
-        <v>232.3483604113273</v>
+        <v>230.8817879842487</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5350174637734</v>
+        <v>170.0684450366948</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.4100154268311</v>
+        <v>162.9434429997524</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.220762866979</v>
+        <v>327.0926313111382</v>
       </c>
       <c r="C44" t="n">
-        <v>311.0982538457438</v>
+        <v>309.6316814186652</v>
       </c>
       <c r="D44" t="n">
-        <v>300.5084036954192</v>
+        <v>299.0418312683406</v>
       </c>
       <c r="E44" t="n">
-        <v>327.7557321469981</v>
+        <v>326.2891597199194</v>
       </c>
       <c r="F44" t="n">
-        <v>352.7014078164477</v>
+        <v>351.2348353893691</v>
       </c>
       <c r="G44" t="n">
-        <v>361.1280995898713</v>
+        <v>359.6615271627927</v>
       </c>
       <c r="H44" t="n">
-        <v>285.3001641905034</v>
+        <v>169.4525581735643</v>
       </c>
       <c r="I44" t="n">
-        <v>156.3012516451422</v>
+        <v>24.97428685900306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>95.69448001588599</v>
+        <v>94.22790758880734</v>
       </c>
       <c r="S44" t="n">
-        <v>154.8454316609817</v>
+        <v>23.51846687484249</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9212116388676</v>
+        <v>167.454639211789</v>
       </c>
       <c r="U44" t="n">
-        <v>65.08831644574514</v>
+        <v>195.7044425554942</v>
       </c>
       <c r="V44" t="n">
-        <v>273.5776205448712</v>
+        <v>142.2506557587321</v>
       </c>
       <c r="W44" t="n">
-        <v>162.9836322553217</v>
+        <v>293.5997583650707</v>
       </c>
       <c r="X44" t="n">
-        <v>315.5564627532053</v>
+        <v>314.0898903261267</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.9806021939622</v>
+        <v>330.5967283037112</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112.3585457246036</v>
+        <v>110.891973297525</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.27042763937506</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>102.0038701030586</v>
       </c>
       <c r="F45" t="n">
-        <v>64.47773865324403</v>
+        <v>89.42800204104154</v>
       </c>
       <c r="G45" t="n">
-        <v>83.16887923794694</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.06080631123277</v>
+        <v>56.59423388415412</v>
       </c>
       <c r="I45" t="n">
-        <v>35.22199492615138</v>
+        <v>33.75542249907274</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.98319622737944</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.5085331785741</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>13.90739223273027</v>
+        <v>91.69334288637171</v>
       </c>
       <c r="U45" t="n">
-        <v>39.68404561888349</v>
+        <v>170.3001717286325</v>
       </c>
       <c r="V45" t="n">
-        <v>178.6259492241616</v>
+        <v>177.1593767970829</v>
       </c>
       <c r="W45" t="n">
-        <v>197.5203452356559</v>
+        <v>196.0537728085773</v>
       </c>
       <c r="X45" t="n">
-        <v>151.5983472782138</v>
+        <v>150.1317748511351</v>
       </c>
       <c r="Y45" t="n">
-        <v>151.5080578520407</v>
+        <v>150.041485424962</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.6573422566736</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>113.0721831733641</v>
+        <v>111.6056107462855</v>
       </c>
       <c r="D46" t="n">
-        <v>94.44083509294866</v>
+        <v>92.97426266587001</v>
       </c>
       <c r="E46" t="n">
-        <v>92.25932472130548</v>
+        <v>90.79275229422683</v>
       </c>
       <c r="F46" t="n">
-        <v>91.24641009766755</v>
+        <v>14.51990583401493</v>
       </c>
       <c r="G46" t="n">
-        <v>113.8163414331951</v>
+        <v>112.3497690061164</v>
       </c>
       <c r="H46" t="n">
-        <v>108.0525345821759</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.2758370019946</v>
+        <v>99.80926457491594</v>
       </c>
       <c r="J46" t="n">
-        <v>39.18454219140908</v>
+        <v>37.71796976433043</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.98740532643069</v>
+        <v>30.52083289935204</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1187534519058</v>
+        <v>121.6521810248271</v>
       </c>
       <c r="S46" t="n">
-        <v>169.8419601117085</v>
+        <v>168.3753876846299</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7709515030178</v>
+        <v>172.3043790759392</v>
       </c>
       <c r="U46" t="n">
-        <v>232.1443914312272</v>
+        <v>230.6778190041485</v>
       </c>
       <c r="V46" t="n">
-        <v>166.9383706433992</v>
+        <v>196.4964329714857</v>
       </c>
       <c r="W46" t="n">
-        <v>100.2656618744996</v>
+        <v>101.0213956251881</v>
       </c>
       <c r="X46" t="n">
-        <v>39.45231892694579</v>
+        <v>170.0684450366948</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.32731689000343</v>
+        <v>162.9434429997524</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>278278.1908838349</v>
+        <v>261844.1095776824</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>409796.2784247605</v>
+        <v>413857.4959627796</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>409796.2784247606</v>
+        <v>413857.4959627795</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571727.8876729452</v>
+        <v>571727.8876729453</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>571727.8876729453</v>
+        <v>571727.887672945</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>487920.0425443702</v>
+        <v>504522.6827094964</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>423713.2305190929</v>
+        <v>425392.116333921</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>423713.2305190928</v>
+        <v>425392.1163339209</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
+        <v>798794.4302491128</v>
+      </c>
+      <c r="D2" t="n">
         <v>798794.4302491125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>798794.4302491122</v>
       </c>
       <c r="E2" t="n">
         <v>234740.9065329396</v>
       </c>
       <c r="F2" t="n">
-        <v>248894.3721637369</v>
+        <v>234740.9065329396</v>
       </c>
       <c r="G2" t="n">
-        <v>396267.7117930991</v>
+        <v>400904.2855223201</v>
       </c>
       <c r="H2" t="n">
-        <v>396267.7117930989</v>
+        <v>400904.2855223201</v>
       </c>
       <c r="I2" t="n">
         <v>545852.119128887</v>
@@ -26340,22 +26340,22 @@
         <v>545852.119128887</v>
       </c>
       <c r="K2" t="n">
-        <v>545852.1191288873</v>
+        <v>545852.119128887</v>
       </c>
       <c r="L2" t="n">
-        <v>571893.2167461386</v>
+        <v>571893.2167461385</v>
       </c>
       <c r="M2" t="n">
-        <v>571893.2167461386</v>
+        <v>571893.2167461384</v>
       </c>
       <c r="N2" t="n">
-        <v>471907.1543680764</v>
+        <v>487344.733082445</v>
       </c>
       <c r="O2" t="n">
-        <v>408851.7340050674</v>
+        <v>411436.5806229761</v>
       </c>
       <c r="P2" t="n">
-        <v>408851.7340050676</v>
+        <v>411436.5806229764</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>7340.879554832793</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>57565.1267257149</v>
+        <v>66369.62296819151</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63917.56088787944</v>
+        <v>62153.34506511853</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43339.71034021096</v>
+        <v>44512.96828187387</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>89949.63535577923</v>
       </c>
       <c r="F4" t="n">
-        <v>95155.74270665161</v>
+        <v>89949.63535577923</v>
       </c>
       <c r="G4" t="n">
-        <v>172980.3631145935</v>
+        <v>175474.1421800105</v>
       </c>
       <c r="H4" t="n">
-        <v>172980.3631145935</v>
+        <v>175474.1421800105</v>
       </c>
       <c r="I4" t="n">
         <v>247349.3547233101</v>
@@ -26453,13 +26453,13 @@
         <v>262619.2129810327</v>
       </c>
       <c r="N4" t="n">
-        <v>206587.2638704497</v>
+        <v>213054.00566576</v>
       </c>
       <c r="O4" t="n">
-        <v>178023.3295674265</v>
+        <v>179762.4163281585</v>
       </c>
       <c r="P4" t="n">
-        <v>178023.3295674265</v>
+        <v>179762.4163281585</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>2397.621796901122</v>
+        <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>11112.67298853617</v>
+        <v>11371.08248151649</v>
       </c>
       <c r="H5" t="n">
-        <v>11112.67298853617</v>
+        <v>11371.08248151649</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26505,13 +26505,13 @@
         <v>23073.83772314023</v>
       </c>
       <c r="N5" t="n">
-        <v>18490.27078713468</v>
+        <v>20171.27776914031</v>
       </c>
       <c r="O5" t="n">
-        <v>12585.03570677812</v>
+        <v>12573.21276854195</v>
       </c>
       <c r="P5" t="n">
-        <v>12585.03570677812</v>
+        <v>12573.21276854195</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345019.0613595808</v>
+        <v>344974.9255808999</v>
       </c>
       <c r="C6" t="n">
-        <v>345019.0613595813</v>
+        <v>344974.9255809004</v>
       </c>
       <c r="D6" t="n">
-        <v>345019.061359581</v>
+        <v>344974.9255809002</v>
       </c>
       <c r="E6" t="n">
-        <v>135958.803713257</v>
+        <v>121451.7570700586</v>
       </c>
       <c r="F6" t="n">
-        <v>144000.1281053514</v>
+        <v>129444.3164416944</v>
       </c>
       <c r="G6" t="n">
-        <v>154609.5489642545</v>
+        <v>137442.9907106694</v>
       </c>
       <c r="H6" t="n">
-        <v>212174.6756899692</v>
+        <v>203812.6136788609</v>
       </c>
       <c r="I6" t="n">
-        <v>212416.0492267501</v>
+        <v>207650.428985696</v>
       </c>
       <c r="J6" t="n">
-        <v>268341.0507429937</v>
+        <v>261811.2146791785</v>
       </c>
       <c r="K6" t="n">
-        <v>276333.6101146299</v>
+        <v>269803.7740508144</v>
       </c>
       <c r="L6" t="n">
-        <v>242860.4557017548</v>
+        <v>235825.082148001</v>
       </c>
       <c r="M6" t="n">
-        <v>286200.1660419657</v>
+        <v>280338.0504298747</v>
       </c>
       <c r="N6" t="n">
-        <v>246829.619710492</v>
+        <v>246089.4241979233</v>
       </c>
       <c r="O6" t="n">
-        <v>218243.3687308629</v>
+        <v>209124.5631930783</v>
       </c>
       <c r="P6" t="n">
-        <v>218243.368730863</v>
+        <v>209124.5631930784</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26721,13 +26721,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="O2" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="P2" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
     <row r="3">
@@ -26801,13 +26801,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26825,13 +26825,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P4" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.41343662403564</v>
+        <v>44.88000905111429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575599</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.31129914620057</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43.41343662403564</v>
+        <v>44.88000905111429</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>35.99249701283463</v>
+        <v>34.52592458575599</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>83.31129914620057</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="C17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="D17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="S17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="T17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="U17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="V17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="W17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="X17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="C18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="D18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="E18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="F18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="G18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="S18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="T18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="U18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="V18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="W18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="X18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Y18" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="C19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="D19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="E19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="F19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="J19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="K19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="L19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="M19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="N19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="O19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="P19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="R19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="S19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="T19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="U19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="V19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="W19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="X19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="C20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="D20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="E20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="S20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="T20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="U20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="V20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="W20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="X20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="C21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="D21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="E21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="F21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="G21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="S21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="T21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="U21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="V21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="W21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="X21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="C22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="D22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="E22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="F22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="J22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="K22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="L22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="M22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="N22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="O22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="P22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="R22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="S22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="T22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="U22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="V22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="W22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="X22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.40413583858044</v>
+        <v>54.87070826565909</v>
       </c>
     </row>
     <row r="23">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="C38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="D38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="E38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="F38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="G38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="H38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="I38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="S38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="T38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="U38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="V38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="W38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="X38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="C39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="D39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="E39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="F39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="G39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="H39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="I39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="S39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="T39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="U39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="V39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="W39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="X39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="Y39" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="C40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="D40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="E40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="F40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="G40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="H40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="I40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="J40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="K40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="L40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="M40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="N40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="O40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="P40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="R40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="S40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="T40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="U40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="V40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="W40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="X40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.1653371398085</v>
+        <v>65.63190956688715</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="C41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="D41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="E41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="F41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="G41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="H41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="I41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="S41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="T41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="U41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="V41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="W41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="X41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Y41" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="C42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="D42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="E42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="F42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="G42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="H42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="I42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="S42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="T42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="U42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="V42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="W42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="X42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Y42" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="C43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="D43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="E43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="F43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="G43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="H43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="I43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="J43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="K43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="L43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="M43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="N43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="O43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="P43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="R43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="S43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="T43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="U43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="V43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="W43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="X43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="C44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="D44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="E44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="F44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="G44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="H44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="I44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="S44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="T44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="U44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="V44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="W44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="X44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="C45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="D45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="E45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="F45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="G45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="H45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="I45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="S45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="T45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="U45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="V45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="W45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="X45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="C46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="D46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="E46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="F46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="G46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="H46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="I46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="J46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="K46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="L46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="M46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="N46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="O46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="P46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="R46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="S46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="T46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="U46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="V46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="W46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="X46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.1746379252637</v>
+        <v>55.64121035234234</v>
       </c>
     </row>
   </sheetData>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="M17" t="n">
-        <v>18.84063036185818</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="O17" t="n">
-        <v>108.9315903408314</v>
+        <v>106.6628299925946</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>36.567316342767</v>
       </c>
       <c r="M18" t="n">
-        <v>104.5303139634241</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="O18" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="P18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>31.13464401269759</v>
+        <v>32.60121643977624</v>
       </c>
       <c r="L19" t="n">
-        <v>80.99416109889658</v>
+        <v>82.46073352597523</v>
       </c>
       <c r="M19" t="n">
-        <v>92.98801280042103</v>
+        <v>94.45458522749968</v>
       </c>
       <c r="N19" t="n">
-        <v>97.53630821780904</v>
+        <v>99.00288064488768</v>
       </c>
       <c r="O19" t="n">
-        <v>77.98926375262012</v>
+        <v>79.45583617969876</v>
       </c>
       <c r="P19" t="n">
-        <v>50.68269510347393</v>
+        <v>52.14926753055258</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="N20" t="n">
-        <v>108.9315903408314</v>
+        <v>106.6628299925946</v>
       </c>
       <c r="O20" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4747524372399224</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.43480031359654</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="M21" t="n">
-        <v>108.9315903408314</v>
+        <v>111.1538965185985</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>36.567316342767</v>
       </c>
       <c r="O21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>31.13464401269759</v>
+        <v>32.60121643977624</v>
       </c>
       <c r="L22" t="n">
-        <v>80.99416109889658</v>
+        <v>82.46073352597523</v>
       </c>
       <c r="M22" t="n">
-        <v>92.98801280042103</v>
+        <v>94.45458522749968</v>
       </c>
       <c r="N22" t="n">
-        <v>97.53630821780904</v>
+        <v>99.00288064488768</v>
       </c>
       <c r="O22" t="n">
-        <v>77.98926375262012</v>
+        <v>79.45583617969876</v>
       </c>
       <c r="P22" t="n">
-        <v>50.68269510347393</v>
+        <v>52.14926753055258</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36679,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>110.2611618999926</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>167.5013327054491</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.89584531392565</v>
+        <v>43.36241774100429</v>
       </c>
       <c r="L40" t="n">
-        <v>91.75536240012464</v>
+        <v>93.22193482720328</v>
       </c>
       <c r="M40" t="n">
-        <v>103.7492141016491</v>
+        <v>105.2157865287277</v>
       </c>
       <c r="N40" t="n">
-        <v>108.2975095190371</v>
+        <v>109.7640819461157</v>
       </c>
       <c r="O40" t="n">
-        <v>88.75046505384817</v>
+        <v>90.21703748092682</v>
       </c>
       <c r="P40" t="n">
-        <v>61.44389640470199</v>
+        <v>62.91046883178063</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="M41" t="n">
-        <v>64.20744844290135</v>
+        <v>20.5579462931163</v>
       </c>
       <c r="N41" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="O41" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>54.51799416947293</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="O42" t="n">
-        <v>62.10941069725146</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>31.90514609938084</v>
+        <v>33.37171852645949</v>
       </c>
       <c r="L43" t="n">
-        <v>81.76466318557983</v>
+        <v>83.23123561265848</v>
       </c>
       <c r="M43" t="n">
-        <v>93.75851488710428</v>
+        <v>95.22508731418293</v>
       </c>
       <c r="N43" t="n">
-        <v>98.30681030449229</v>
+        <v>99.77338273157093</v>
       </c>
       <c r="O43" t="n">
-        <v>78.75976583930337</v>
+        <v>80.22633826638202</v>
       </c>
       <c r="P43" t="n">
-        <v>51.45319719015718</v>
+        <v>52.91976961723583</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>34.04779540308739</v>
       </c>
       <c r="L44" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="M44" t="n">
-        <v>64.20744844290134</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0826985368276</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="M45" t="n">
-        <v>132.0826985368276</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="N45" t="n">
-        <v>132.0826985368276</v>
+        <v>54.51799416947293</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1222258102513773</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>129.8603923590605</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.90514609938084</v>
+        <v>33.37171852645949</v>
       </c>
       <c r="L46" t="n">
-        <v>81.76466318557983</v>
+        <v>83.23123561265848</v>
       </c>
       <c r="M46" t="n">
-        <v>93.75851488710428</v>
+        <v>95.22508731418293</v>
       </c>
       <c r="N46" t="n">
-        <v>98.30681030449229</v>
+        <v>99.77338273157093</v>
       </c>
       <c r="O46" t="n">
-        <v>78.75976583930337</v>
+        <v>80.22633826638202</v>
       </c>
       <c r="P46" t="n">
-        <v>51.45319719015718</v>
+        <v>52.91976961723583</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
